--- a/excelAuditoria.xlsx
+++ b/excelAuditoria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\AUDITORIA\auditoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDC81D44-E5E0-4B11-A0FA-B44CD3242BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3253A0F6-CFCC-4566-9E86-34DC39D25E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8CABE98D-1EE8-4E67-8293-B4283B615746}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>AUDITORIA</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>CESAR</t>
   </si>
 </sst>
 </file>
@@ -84,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C84231-F901-4A39-8D7C-46ACF00DC808}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,6 +526,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
